--- a/model/Livestock_SDMX_Model.xlsx
+++ b/model/Livestock_SDMX_Model.xlsx
@@ -5,17 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\rara\RAP\Agriculture\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\rara\RAP\Agriculture\sdd-household-primary-activity-processing\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92F35FB-1623-4741-95DB-CCD4B66FBCB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896F7BF0-0AB0-45FB-9A00-F50252336AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="135" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="135" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DSD" sheetId="1" r:id="rId1"/>
-    <sheet name="LIVESTOCK_ACTIVITY" sheetId="6" r:id="rId2"/>
-    <sheet name="Indicator" sheetId="7" r:id="rId3"/>
+    <sheet name="LIVESTOCK_PIG" sheetId="6" r:id="rId2"/>
+    <sheet name="LIVESTOCK_CHICKEN" sheetId="8" r:id="rId3"/>
+    <sheet name="LIVESTOCK_DUCK" sheetId="9" r:id="rId4"/>
+    <sheet name="LIVESTOCK_OTHER" sheetId="10" r:id="rId5"/>
+    <sheet name="Indicator" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="65">
   <si>
     <t>Concepts</t>
   </si>
@@ -100,18 +103,12 @@
     <t>Reference area</t>
   </si>
   <si>
-    <t>CL_AREA</t>
-  </si>
-  <si>
     <t>INDICATOR</t>
   </si>
   <si>
     <t>Indicator</t>
   </si>
   <si>
-    <t>CL_INDICATOR</t>
-  </si>
-  <si>
     <t>OBS_VALUE</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
     <t>LABEL</t>
   </si>
   <si>
-    <t>OT</t>
-  </si>
-  <si>
     <t>Label</t>
   </si>
   <si>
@@ -166,12 +160,6 @@
     <t>CL_OBS_STATUS</t>
   </si>
   <si>
-    <t>Fishing activity</t>
-  </si>
-  <si>
-    <t>CL_FISHING_ACTIVITY</t>
-  </si>
-  <si>
     <t>_T</t>
   </si>
   <si>
@@ -184,30 +172,6 @@
     <t>Percentage of households</t>
   </si>
   <si>
-    <t>LIVESTOCK_ACTIVITY</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>Pig farming</t>
-  </si>
-  <si>
-    <t>CK</t>
-  </si>
-  <si>
-    <t>Chicken farming</t>
-  </si>
-  <si>
-    <t>DK</t>
-  </si>
-  <si>
-    <t>Duck farming</t>
-  </si>
-  <si>
-    <t>Other livestock farming</t>
-  </si>
-  <si>
     <t>SEX</t>
   </si>
   <si>
@@ -227,6 +191,51 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>LIVESTOCK_PIG</t>
+  </si>
+  <si>
+    <t>LIVESTOCK_CHICKEN</t>
+  </si>
+  <si>
+    <t>LIVESTOCK_DUCK</t>
+  </si>
+  <si>
+    <t>LIVESTOCK_OTHER</t>
+  </si>
+  <si>
+    <t>Raising pigs</t>
+  </si>
+  <si>
+    <t>raising chickens</t>
+  </si>
+  <si>
+    <t>raising ducks</t>
+  </si>
+  <si>
+    <t>raising other livestock</t>
+  </si>
+  <si>
+    <t>CL_COM_YESNO</t>
+  </si>
+  <si>
+    <t>CL_COM_GEO_PICT_L123</t>
+  </si>
+  <si>
+    <t>CL_HH_PRIMARY_ACTIVITY_INDICATORS</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -584,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +606,7 @@
     <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -686,7 +695,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -694,10 +703,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -709,7 +718,7 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -717,10 +726,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -732,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
@@ -740,10 +749,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -755,7 +764,7 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
@@ -763,13 +772,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -778,53 +787,53 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
@@ -832,22 +841,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G11" t="s">
         <v>9</v>
@@ -855,24 +864,93 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" t="s">
         <v>9</v>
       </c>
     </row>
@@ -884,10 +962,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -902,47 +980,31 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>62</v>
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -951,11 +1013,167 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B942E397-2E79-4FB6-B120-ED347F845796}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A711D74A-BF47-4DF1-A9CD-277DE80B1187}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B5A810-A156-4251-BC94-D5E2ABBABFB2}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,23 +1187,23 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/model/Livestock_SDMX_Model.xlsx
+++ b/model/Livestock_SDMX_Model.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\rara\RAP\Agriculture\sdd-household-primary-activity-processing\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896F7BF0-0AB0-45FB-9A00-F50252336AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958DD574-FF39-4F3F-A347-6DB264B9CB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="135" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DSD" sheetId="1" r:id="rId1"/>
+    <sheet name="DSD_LIVESTOCK" sheetId="1" r:id="rId1"/>
     <sheet name="LIVESTOCK_PIG" sheetId="6" r:id="rId2"/>
     <sheet name="LIVESTOCK_CHICKEN" sheetId="8" r:id="rId3"/>
     <sheet name="LIVESTOCK_DUCK" sheetId="9" r:id="rId4"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="68">
   <si>
     <t>Concepts</t>
   </si>
@@ -217,9 +217,6 @@
     <t>raising other livestock</t>
   </si>
   <si>
-    <t>CL_COM_YESNO</t>
-  </si>
-  <si>
     <t>CL_COM_GEO_PICT_L123</t>
   </si>
   <si>
@@ -236,6 +233,18 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>CL_LIVESTOCK_PIG</t>
+  </si>
+  <si>
+    <t>CL_LIVESTOCK_CHICKEN</t>
+  </si>
+  <si>
+    <t>CL_LIVESTOCK_DUCK</t>
+  </si>
+  <si>
+    <t>CL_LIVESTOCK_OTHER</t>
   </si>
 </sst>
 </file>
@@ -595,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +704,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -718,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -787,7 +796,7 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G8" t="s">
         <v>9</v>
@@ -810,7 +819,7 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
@@ -833,7 +842,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
@@ -856,7 +865,7 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G11" t="s">
         <v>9</v>
@@ -985,18 +994,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1037,18 +1046,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1068,7 +1077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A711D74A-BF47-4DF1-A9CD-277DE80B1187}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1089,18 +1098,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1141,18 +1150,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/model/Livestock_SDMX_Model.xlsx
+++ b/model/Livestock_SDMX_Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\rara\RAP\Agriculture\sdd-household-primary-activity-processing\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958DD574-FF39-4F3F-A347-6DB264B9CB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B5D68A-F587-406D-8DBF-6D6AE1B808DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="65">
   <si>
     <t>Concepts</t>
   </si>
@@ -97,9 +97,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>REF_AREA</t>
-  </si>
-  <si>
     <t>Reference area</t>
   </si>
   <si>
@@ -235,16 +232,10 @@
     <t>No</t>
   </si>
   <si>
-    <t>CL_LIVESTOCK_PIG</t>
-  </si>
-  <si>
-    <t>CL_LIVESTOCK_CHICKEN</t>
-  </si>
-  <si>
-    <t>CL_LIVESTOCK_DUCK</t>
-  </si>
-  <si>
-    <t>CL_LIVESTOCK_OTHER</t>
+    <t>GEO_PICT</t>
+  </si>
+  <si>
+    <t>CL_COM_YESNO</t>
   </si>
 </sst>
 </file>
@@ -605,7 +596,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,10 +680,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -704,7 +695,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -712,10 +703,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -727,7 +718,7 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -735,10 +726,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
         <v>43</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -750,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
@@ -758,10 +749,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
         <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -773,7 +764,7 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
@@ -781,13 +772,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -804,10 +795,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -819,7 +810,7 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
@@ -827,10 +818,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -842,7 +833,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
@@ -850,10 +841,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -865,7 +856,7 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
         <v>9</v>
@@ -873,22 +864,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -896,22 +887,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
         <v>9</v>
@@ -919,22 +910,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
         <v>9</v>
@@ -942,22 +933,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
@@ -989,31 +980,31 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1041,31 +1032,31 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1093,31 +1084,31 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1145,31 +1136,31 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1196,23 +1187,23 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
